--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_架构组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_架构组.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.0.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28050" windowHeight="13365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="13365"/>
   </bookViews>
   <sheets>
-    <sheet name="版本2.1.1.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -74,12 +79,6 @@
     <t>bs启用新的连接池使用方式</t>
   </si>
   <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>bs</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -118,18 +117,52 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术优化，不需要测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否影响数据</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -141,209 +174,85 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,198 +267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -637,426 +360,151 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="56">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 9" xfId="2"/>
     <cellStyle name="甘特图" xfId="1"/>
-    <cellStyle name="常规 9" xfId="2"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 3 12" xfId="4"/>
-    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
-    <cellStyle name="常规" xfId="9"/>
-    <cellStyle name="40% - Accent5" xfId="10" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="13" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="14" builtinId="43"/>
-    <cellStyle name="常规 3" xfId="15"/>
-    <cellStyle name="Accent4" xfId="16" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="17" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="18" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="19" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="22" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="24" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="25" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="26" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="27" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="29" builtinId="32"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42"/>
-    <cellStyle name="Total" xfId="32" builtinId="25"/>
-    <cellStyle name="Output" xfId="33" builtinId="21"/>
-    <cellStyle name="Currency" xfId="34" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38"/>
-    <cellStyle name="Note" xfId="36" builtinId="10"/>
-    <cellStyle name="Input" xfId="37" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="38" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="39" builtinId="22"/>
-    <cellStyle name="Good" xfId="40" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="41" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="42" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="43" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="44" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="45" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="Title" xfId="47" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="48" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="49" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="52" builtinId="17"/>
-    <cellStyle name="Comma" xfId="53" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="54" builtinId="23"/>
-    <cellStyle name="Percent" xfId="55" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1065,7 +513,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1388,15 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:S214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="11" customWidth="1"/>
@@ -1413,13 +860,13 @@
     <col min="14" max="14" width="11.625" style="11" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.5" style="11" customWidth="1"/>
-    <col min="19" max="19" width="8.875" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="17" max="18" width="17.625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="48.5" style="11" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:18">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1471,93 +918,112 @@
       <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="13.5" spans="1:19">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>19</v>
+      <c r="C2" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="23">
         <v>42431</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="23">
         <v>42431</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" s="16"/>
       <c r="M2" s="26"/>
       <c r="N2" s="23"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="29">
-        <v>1202</v>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29" t="s">
+        <v>40</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="S2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>19</v>
+      <c r="C3" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="23">
         <v>42431</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="23">
         <v>42431</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="29">
-        <v>1217</v>
+      <c r="K3" s="16" t="s">
+        <v>32</v>
       </c>
+      <c r="L3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="23">
+        <v>42436</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -1575,10 +1041,11 @@
       <c r="O4" s="26"/>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -1596,10 +1063,11 @@
       <c r="O5" s="26"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1617,10 +1085,11 @@
       <c r="O6" s="26"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31"/>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1638,10 +1107,11 @@
       <c r="O7" s="26"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="31"/>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1659,10 +1129,11 @@
       <c r="O8" s="26"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31"/>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1680,10 +1151,11 @@
       <c r="O9" s="26"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1701,10 +1173,11 @@
       <c r="O10" s="26"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-    </row>
-    <row r="11" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -1722,10 +1195,11 @@
       <c r="O11" s="26"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
-    </row>
-    <row r="12" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1743,10 +1217,11 @@
       <c r="O12" s="26"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-    </row>
-    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -1764,10 +1239,11 @@
       <c r="O13" s="26"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-    </row>
-    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R13" s="21"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -1785,10 +1261,11 @@
       <c r="O14" s="26"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-    </row>
-    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R14" s="21"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -1806,10 +1283,11 @@
       <c r="O15" s="26"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R15" s="21"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1827,10 +1305,11 @@
       <c r="O16" s="26"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-    </row>
-    <row r="17" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R16" s="21"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1848,10 +1327,11 @@
       <c r="O17" s="26"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-    </row>
-    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R17" s="21"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1869,10 +1349,11 @@
       <c r="O18" s="26"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R18" s="21"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1890,10 +1371,11 @@
       <c r="O19" s="26"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-    </row>
-    <row r="20" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R19" s="21"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1911,10 +1393,11 @@
       <c r="O20" s="26"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31"/>
-    </row>
-    <row r="21" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R20" s="21"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1932,10 +1415,11 @@
       <c r="O21" s="26"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
-    </row>
-    <row r="22" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R21" s="21"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1953,10 +1437,11 @@
       <c r="O22" s="26"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-    </row>
-    <row r="23" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R22" s="21"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
+    </row>
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1974,10 +1459,11 @@
       <c r="O23" s="26"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R23" s="21"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1995,10 +1481,11 @@
       <c r="O24" s="26"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="31"/>
-    </row>
-    <row r="25" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R24" s="21"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -2016,10 +1503,11 @@
       <c r="O25" s="26"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-    </row>
-    <row r="26" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R25" s="21"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
+    </row>
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -2037,10 +1525,11 @@
       <c r="O26" s="26"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
-    </row>
-    <row r="27" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R26" s="21"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2058,10 +1547,11 @@
       <c r="O27" s="26"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R27" s="21"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2079,10 +1569,11 @@
       <c r="O28" s="26"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
-    </row>
-    <row r="29" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R28" s="21"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2100,10 +1591,11 @@
       <c r="O29" s="26"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-    </row>
-    <row r="30" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R29" s="21"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2121,10 +1613,11 @@
       <c r="O30" s="26"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-    </row>
-    <row r="31" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R30" s="21"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2142,10 +1635,11 @@
       <c r="O31" s="26"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
-    </row>
-    <row r="32" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R31" s="21"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2163,10 +1657,11 @@
       <c r="O32" s="26"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="31"/>
-    </row>
-    <row r="33" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R32" s="21"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2184,10 +1679,11 @@
       <c r="O33" s="26"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31"/>
-    </row>
-    <row r="34" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R33" s="21"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2205,10 +1701,11 @@
       <c r="O34" s="26"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
-    </row>
-    <row r="35" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R34" s="21"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2226,10 +1723,11 @@
       <c r="O35" s="26"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="31"/>
-    </row>
-    <row r="36" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R35" s="21"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2247,10 +1745,11 @@
       <c r="O36" s="26"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
-    </row>
-    <row r="37" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R36" s="21"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2268,10 +1767,11 @@
       <c r="O37" s="26"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="31"/>
-    </row>
-    <row r="38" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R37" s="21"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2289,10 +1789,11 @@
       <c r="O38" s="26"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="31"/>
-    </row>
-    <row r="39" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R38" s="21"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2310,10 +1811,11 @@
       <c r="O39" s="26"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="31"/>
-    </row>
-    <row r="40" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R39" s="21"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="31"/>
+    </row>
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2331,10 +1833,11 @@
       <c r="O40" s="26"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="31"/>
-    </row>
-    <row r="41" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R40" s="21"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
+    </row>
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2352,10 +1855,11 @@
       <c r="O41" s="26"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="31"/>
-    </row>
-    <row r="42" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R41" s="21"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="31"/>
+    </row>
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2373,10 +1877,11 @@
       <c r="O42" s="26"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="31"/>
-    </row>
-    <row r="43" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R42" s="21"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2394,10 +1899,11 @@
       <c r="O43" s="26"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="31"/>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R43" s="21"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2415,10 +1921,11 @@
       <c r="O44" s="26"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="31"/>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R44" s="21"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2436,10 +1943,11 @@
       <c r="O45" s="26"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="31"/>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R45" s="21"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2457,10 +1965,11 @@
       <c r="O46" s="26"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="31"/>
-    </row>
-    <row r="47" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R46" s="21"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="31"/>
+    </row>
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2478,10 +1987,11 @@
       <c r="O47" s="26"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="31"/>
-    </row>
-    <row r="48" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R47" s="21"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="31"/>
+    </row>
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2499,10 +2009,11 @@
       <c r="O48" s="26"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="31"/>
-    </row>
-    <row r="49" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R48" s="21"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="31"/>
+    </row>
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2520,10 +2031,11 @@
       <c r="O49" s="26"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="31"/>
-    </row>
-    <row r="50" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R49" s="21"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="31"/>
+    </row>
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2541,10 +2053,11 @@
       <c r="O50" s="26"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="31"/>
-    </row>
-    <row r="51" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R50" s="21"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="31"/>
+    </row>
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2562,10 +2075,11 @@
       <c r="O51" s="26"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="31"/>
-    </row>
-    <row r="52" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R51" s="21"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="31"/>
+    </row>
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
@@ -2583,10 +2097,11 @@
       <c r="O52" s="26"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="31"/>
-    </row>
-    <row r="53" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R52" s="21"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
+    </row>
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
@@ -2604,10 +2119,11 @@
       <c r="O53" s="26"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="31"/>
-    </row>
-    <row r="54" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R53" s="21"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
+    </row>
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
@@ -2625,10 +2141,11 @@
       <c r="O54" s="26"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="31"/>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R54" s="21"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
+    </row>
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
@@ -2646,10 +2163,11 @@
       <c r="O55" s="26"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="31"/>
-    </row>
-    <row r="56" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R55" s="21"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
+    </row>
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18"/>
       <c r="C56" s="16"/>
@@ -2667,10 +2185,11 @@
       <c r="O56" s="26"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="31"/>
-    </row>
-    <row r="57" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R56" s="21"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
+    </row>
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="19"/>
@@ -2688,10 +2207,11 @@
       <c r="O57" s="20"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="31"/>
-    </row>
-    <row r="58" s="9" customFormat="1" ht="13.5" spans="1:19">
+      <c r="R57" s="21"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="31"/>
+    </row>
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="19"/>
@@ -2709,10 +2229,11 @@
       <c r="O58" s="20"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="31"/>
-    </row>
-    <row r="59" ht="13.5" spans="1:18">
+      <c r="R58" s="21"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="31"/>
+    </row>
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2730,9 +2251,10 @@
       <c r="O59" s="22"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
-      <c r="R59" s="22"/>
-    </row>
-    <row r="60" ht="13.5" spans="1:18">
+      <c r="R59" s="21"/>
+      <c r="S59" s="22"/>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2750,9 +2272,10 @@
       <c r="O60" s="22"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
-      <c r="R60" s="22"/>
-    </row>
-    <row r="61" ht="13.5" spans="1:18">
+      <c r="R60" s="21"/>
+      <c r="S60" s="22"/>
+    </row>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2770,9 +2293,10 @@
       <c r="O61" s="22"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
-      <c r="R61" s="22"/>
-    </row>
-    <row r="62" ht="13.5" spans="1:18">
+      <c r="R61" s="21"/>
+      <c r="S61" s="22"/>
+    </row>
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2790,9 +2314,10 @@
       <c r="O62" s="22"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
-      <c r="R62" s="22"/>
-    </row>
-    <row r="63" ht="13.5" spans="1:18">
+      <c r="R62" s="21"/>
+      <c r="S62" s="22"/>
+    </row>
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2810,9 +2335,10 @@
       <c r="O63" s="22"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
-      <c r="R63" s="22"/>
-    </row>
-    <row r="64" ht="13.5" spans="1:18">
+      <c r="R63" s="21"/>
+      <c r="S63" s="22"/>
+    </row>
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2830,9 +2356,10 @@
       <c r="O64" s="22"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
-      <c r="R64" s="22"/>
-    </row>
-    <row r="65" ht="13.5" spans="1:18">
+      <c r="R64" s="21"/>
+      <c r="S64" s="22"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2850,9 +2377,10 @@
       <c r="O65" s="22"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
-      <c r="R65" s="22"/>
-    </row>
-    <row r="66" ht="13.5" spans="1:18">
+      <c r="R65" s="21"/>
+      <c r="S65" s="22"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2870,9 +2398,10 @@
       <c r="O66" s="22"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
-      <c r="R66" s="22"/>
-    </row>
-    <row r="67" ht="13.5" spans="1:18">
+      <c r="R66" s="21"/>
+      <c r="S66" s="22"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2890,9 +2419,10 @@
       <c r="O67" s="22"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21"/>
-      <c r="R67" s="22"/>
-    </row>
-    <row r="68" ht="13.5" spans="1:18">
+      <c r="R67" s="21"/>
+      <c r="S67" s="22"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2910,9 +2440,10 @@
       <c r="O68" s="22"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
-      <c r="R68" s="22"/>
-    </row>
-    <row r="69" ht="13.5" spans="1:18">
+      <c r="R68" s="21"/>
+      <c r="S68" s="22"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2930,9 +2461,10 @@
       <c r="O69" s="22"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="21"/>
-      <c r="R69" s="22"/>
-    </row>
-    <row r="70" ht="13.5" spans="1:18">
+      <c r="R69" s="21"/>
+      <c r="S69" s="22"/>
+    </row>
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2950,9 +2482,10 @@
       <c r="O70" s="22"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
-      <c r="R70" s="22"/>
-    </row>
-    <row r="71" ht="13.5" spans="1:18">
+      <c r="R70" s="21"/>
+      <c r="S70" s="22"/>
+    </row>
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2970,9 +2503,10 @@
       <c r="O71" s="22"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
-      <c r="R71" s="22"/>
-    </row>
-    <row r="72" ht="13.5" spans="1:18">
+      <c r="R71" s="21"/>
+      <c r="S71" s="22"/>
+    </row>
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2990,9 +2524,10 @@
       <c r="O72" s="22"/>
       <c r="P72" s="21"/>
       <c r="Q72" s="21"/>
-      <c r="R72" s="22"/>
-    </row>
-    <row r="73" ht="13.5" spans="1:18">
+      <c r="R72" s="21"/>
+      <c r="S72" s="22"/>
+    </row>
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3010,9 +2545,10 @@
       <c r="O73" s="22"/>
       <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
-      <c r="R73" s="22"/>
-    </row>
-    <row r="74" ht="13.5" spans="1:18">
+      <c r="R73" s="21"/>
+      <c r="S73" s="22"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3030,9 +2566,10 @@
       <c r="O74" s="22"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
-      <c r="R74" s="22"/>
-    </row>
-    <row r="75" ht="13.5" spans="1:18">
+      <c r="R74" s="21"/>
+      <c r="S74" s="22"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3050,9 +2587,10 @@
       <c r="O75" s="22"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
-      <c r="R75" s="22"/>
-    </row>
-    <row r="76" ht="13.5" spans="1:18">
+      <c r="R75" s="21"/>
+      <c r="S75" s="22"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3070,9 +2608,10 @@
       <c r="O76" s="22"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
-      <c r="R76" s="22"/>
-    </row>
-    <row r="77" ht="13.5" spans="1:18">
+      <c r="R76" s="21"/>
+      <c r="S76" s="22"/>
+    </row>
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3090,9 +2629,10 @@
       <c r="O77" s="22"/>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
-      <c r="R77" s="22"/>
-    </row>
-    <row r="78" ht="13.5" spans="1:18">
+      <c r="R77" s="21"/>
+      <c r="S77" s="22"/>
+    </row>
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3110,9 +2650,10 @@
       <c r="O78" s="22"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
-      <c r="R78" s="22"/>
-    </row>
-    <row r="79" ht="13.5" spans="1:18">
+      <c r="R78" s="21"/>
+      <c r="S78" s="22"/>
+    </row>
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3130,9 +2671,10 @@
       <c r="O79" s="22"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
-      <c r="R79" s="22"/>
-    </row>
-    <row r="80" ht="13.5" spans="1:18">
+      <c r="R79" s="21"/>
+      <c r="S79" s="22"/>
+    </row>
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3150,9 +2692,10 @@
       <c r="O80" s="22"/>
       <c r="P80" s="21"/>
       <c r="Q80" s="21"/>
-      <c r="R80" s="22"/>
-    </row>
-    <row r="81" ht="13.5" spans="1:18">
+      <c r="R80" s="21"/>
+      <c r="S80" s="22"/>
+    </row>
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3170,9 +2713,10 @@
       <c r="O81" s="22"/>
       <c r="P81" s="21"/>
       <c r="Q81" s="21"/>
-      <c r="R81" s="22"/>
-    </row>
-    <row r="82" ht="13.5" spans="1:18">
+      <c r="R81" s="21"/>
+      <c r="S81" s="22"/>
+    </row>
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3190,9 +2734,10 @@
       <c r="O82" s="22"/>
       <c r="P82" s="21"/>
       <c r="Q82" s="21"/>
-      <c r="R82" s="22"/>
-    </row>
-    <row r="83" ht="13.5" spans="1:18">
+      <c r="R82" s="21"/>
+      <c r="S82" s="22"/>
+    </row>
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3210,9 +2755,10 @@
       <c r="O83" s="22"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
-      <c r="R83" s="22"/>
-    </row>
-    <row r="84" ht="13.5" spans="1:18">
+      <c r="R83" s="21"/>
+      <c r="S83" s="22"/>
+    </row>
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3230,9 +2776,10 @@
       <c r="O84" s="22"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
-      <c r="R84" s="22"/>
-    </row>
-    <row r="85" ht="13.5" spans="1:18">
+      <c r="R84" s="21"/>
+      <c r="S84" s="22"/>
+    </row>
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3250,9 +2797,10 @@
       <c r="O85" s="22"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="21"/>
-      <c r="R85" s="22"/>
-    </row>
-    <row r="86" ht="13.5" spans="1:18">
+      <c r="R85" s="21"/>
+      <c r="S85" s="22"/>
+    </row>
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3270,9 +2818,10 @@
       <c r="O86" s="22"/>
       <c r="P86" s="21"/>
       <c r="Q86" s="21"/>
-      <c r="R86" s="22"/>
-    </row>
-    <row r="87" ht="13.5" spans="1:18">
+      <c r="R86" s="21"/>
+      <c r="S86" s="22"/>
+    </row>
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3290,9 +2839,10 @@
       <c r="O87" s="22"/>
       <c r="P87" s="21"/>
       <c r="Q87" s="21"/>
-      <c r="R87" s="22"/>
-    </row>
-    <row r="88" ht="13.5" spans="1:18">
+      <c r="R87" s="21"/>
+      <c r="S87" s="22"/>
+    </row>
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3310,9 +2860,10 @@
       <c r="O88" s="22"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="21"/>
-      <c r="R88" s="22"/>
-    </row>
-    <row r="89" ht="13.5" spans="1:18">
+      <c r="R88" s="21"/>
+      <c r="S88" s="22"/>
+    </row>
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3330,9 +2881,10 @@
       <c r="O89" s="22"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="21"/>
-      <c r="R89" s="22"/>
-    </row>
-    <row r="90" ht="13.5" spans="1:18">
+      <c r="R89" s="21"/>
+      <c r="S89" s="22"/>
+    </row>
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3350,9 +2902,10 @@
       <c r="O90" s="22"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
-      <c r="R90" s="22"/>
-    </row>
-    <row r="91" ht="13.5" spans="1:18">
+      <c r="R90" s="21"/>
+      <c r="S90" s="22"/>
+    </row>
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3370,9 +2923,10 @@
       <c r="O91" s="22"/>
       <c r="P91" s="21"/>
       <c r="Q91" s="21"/>
-      <c r="R91" s="22"/>
-    </row>
-    <row r="92" ht="13.5" spans="1:18">
+      <c r="R91" s="21"/>
+      <c r="S91" s="22"/>
+    </row>
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3390,9 +2944,10 @@
       <c r="O92" s="22"/>
       <c r="P92" s="21"/>
       <c r="Q92" s="21"/>
-      <c r="R92" s="22"/>
-    </row>
-    <row r="93" ht="13.5" spans="1:18">
+      <c r="R92" s="21"/>
+      <c r="S92" s="22"/>
+    </row>
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3410,9 +2965,10 @@
       <c r="O93" s="22"/>
       <c r="P93" s="21"/>
       <c r="Q93" s="21"/>
-      <c r="R93" s="22"/>
-    </row>
-    <row r="94" ht="13.5" spans="1:18">
+      <c r="R93" s="21"/>
+      <c r="S93" s="22"/>
+    </row>
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3430,9 +2986,10 @@
       <c r="O94" s="22"/>
       <c r="P94" s="21"/>
       <c r="Q94" s="21"/>
-      <c r="R94" s="22"/>
-    </row>
-    <row r="95" ht="13.5" spans="1:18">
+      <c r="R94" s="21"/>
+      <c r="S94" s="22"/>
+    </row>
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3450,9 +3007,10 @@
       <c r="O95" s="22"/>
       <c r="P95" s="21"/>
       <c r="Q95" s="21"/>
-      <c r="R95" s="22"/>
-    </row>
-    <row r="96" ht="13.5" spans="1:18">
+      <c r="R95" s="21"/>
+      <c r="S95" s="22"/>
+    </row>
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3470,9 +3028,10 @@
       <c r="O96" s="22"/>
       <c r="P96" s="21"/>
       <c r="Q96" s="21"/>
-      <c r="R96" s="22"/>
-    </row>
-    <row r="97" ht="13.5" spans="1:18">
+      <c r="R96" s="21"/>
+      <c r="S96" s="22"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3490,9 +3049,10 @@
       <c r="O97" s="22"/>
       <c r="P97" s="21"/>
       <c r="Q97" s="21"/>
-      <c r="R97" s="22"/>
-    </row>
-    <row r="98" ht="13.5" spans="1:18">
+      <c r="R97" s="21"/>
+      <c r="S97" s="22"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3510,9 +3070,10 @@
       <c r="O98" s="22"/>
       <c r="P98" s="21"/>
       <c r="Q98" s="21"/>
-      <c r="R98" s="22"/>
-    </row>
-    <row r="99" ht="13.5" spans="1:18">
+      <c r="R98" s="21"/>
+      <c r="S98" s="22"/>
+    </row>
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3530,9 +3091,10 @@
       <c r="O99" s="22"/>
       <c r="P99" s="21"/>
       <c r="Q99" s="21"/>
-      <c r="R99" s="22"/>
-    </row>
-    <row r="100" ht="13.5" spans="1:18">
+      <c r="R99" s="21"/>
+      <c r="S99" s="22"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3550,9 +3112,10 @@
       <c r="O100" s="22"/>
       <c r="P100" s="21"/>
       <c r="Q100" s="21"/>
-      <c r="R100" s="22"/>
-    </row>
-    <row r="101" ht="13.5" spans="1:18">
+      <c r="R100" s="21"/>
+      <c r="S100" s="22"/>
+    </row>
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3570,9 +3133,10 @@
       <c r="O101" s="22"/>
       <c r="P101" s="21"/>
       <c r="Q101" s="21"/>
-      <c r="R101" s="22"/>
-    </row>
-    <row r="102" ht="13.5" spans="1:18">
+      <c r="R101" s="21"/>
+      <c r="S101" s="22"/>
+    </row>
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3590,9 +3154,10 @@
       <c r="O102" s="22"/>
       <c r="P102" s="21"/>
       <c r="Q102" s="21"/>
-      <c r="R102" s="22"/>
-    </row>
-    <row r="103" ht="13.5" spans="1:18">
+      <c r="R102" s="21"/>
+      <c r="S102" s="22"/>
+    </row>
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3610,9 +3175,10 @@
       <c r="O103" s="22"/>
       <c r="P103" s="21"/>
       <c r="Q103" s="21"/>
-      <c r="R103" s="22"/>
-    </row>
-    <row r="104" ht="13.5" spans="1:18">
+      <c r="R103" s="21"/>
+      <c r="S103" s="22"/>
+    </row>
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3630,9 +3196,10 @@
       <c r="O104" s="22"/>
       <c r="P104" s="21"/>
       <c r="Q104" s="21"/>
-      <c r="R104" s="22"/>
-    </row>
-    <row r="105" ht="13.5" spans="1:18">
+      <c r="R104" s="21"/>
+      <c r="S104" s="22"/>
+    </row>
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3650,9 +3217,10 @@
       <c r="O105" s="22"/>
       <c r="P105" s="21"/>
       <c r="Q105" s="21"/>
-      <c r="R105" s="22"/>
-    </row>
-    <row r="106" ht="13.5" spans="1:18">
+      <c r="R105" s="21"/>
+      <c r="S105" s="22"/>
+    </row>
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3670,9 +3238,10 @@
       <c r="O106" s="22"/>
       <c r="P106" s="21"/>
       <c r="Q106" s="21"/>
-      <c r="R106" s="22"/>
-    </row>
-    <row r="107" ht="13.5" spans="1:18">
+      <c r="R106" s="21"/>
+      <c r="S106" s="22"/>
+    </row>
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3690,9 +3259,10 @@
       <c r="O107" s="22"/>
       <c r="P107" s="21"/>
       <c r="Q107" s="21"/>
-      <c r="R107" s="22"/>
-    </row>
-    <row r="108" ht="13.5" spans="1:18">
+      <c r="R107" s="21"/>
+      <c r="S107" s="22"/>
+    </row>
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3710,9 +3280,10 @@
       <c r="O108" s="22"/>
       <c r="P108" s="21"/>
       <c r="Q108" s="21"/>
-      <c r="R108" s="22"/>
-    </row>
-    <row r="109" ht="13.5" spans="1:18">
+      <c r="R108" s="21"/>
+      <c r="S108" s="22"/>
+    </row>
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3730,9 +3301,10 @@
       <c r="O109" s="22"/>
       <c r="P109" s="21"/>
       <c r="Q109" s="21"/>
-      <c r="R109" s="22"/>
-    </row>
-    <row r="110" ht="13.5" spans="1:18">
+      <c r="R109" s="21"/>
+      <c r="S109" s="22"/>
+    </row>
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3750,9 +3322,10 @@
       <c r="O110" s="22"/>
       <c r="P110" s="21"/>
       <c r="Q110" s="21"/>
-      <c r="R110" s="22"/>
-    </row>
-    <row r="111" ht="13.5" spans="1:18">
+      <c r="R110" s="21"/>
+      <c r="S110" s="22"/>
+    </row>
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3770,9 +3343,10 @@
       <c r="O111" s="22"/>
       <c r="P111" s="21"/>
       <c r="Q111" s="21"/>
-      <c r="R111" s="22"/>
-    </row>
-    <row r="112" ht="13.5" spans="1:18">
+      <c r="R111" s="21"/>
+      <c r="S111" s="22"/>
+    </row>
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3790,9 +3364,10 @@
       <c r="O112" s="22"/>
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
-      <c r="R112" s="22"/>
-    </row>
-    <row r="113" ht="13.5" spans="1:18">
+      <c r="R112" s="21"/>
+      <c r="S112" s="22"/>
+    </row>
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3810,9 +3385,10 @@
       <c r="O113" s="22"/>
       <c r="P113" s="21"/>
       <c r="Q113" s="21"/>
-      <c r="R113" s="22"/>
-    </row>
-    <row r="114" ht="13.5" spans="1:18">
+      <c r="R113" s="21"/>
+      <c r="S113" s="22"/>
+    </row>
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3830,9 +3406,10 @@
       <c r="O114" s="22"/>
       <c r="P114" s="21"/>
       <c r="Q114" s="21"/>
-      <c r="R114" s="22"/>
-    </row>
-    <row r="115" ht="13.5" spans="1:18">
+      <c r="R114" s="21"/>
+      <c r="S114" s="22"/>
+    </row>
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3850,9 +3427,10 @@
       <c r="O115" s="22"/>
       <c r="P115" s="21"/>
       <c r="Q115" s="21"/>
-      <c r="R115" s="22"/>
-    </row>
-    <row r="116" ht="13.5" spans="1:18">
+      <c r="R115" s="21"/>
+      <c r="S115" s="22"/>
+    </row>
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3870,9 +3448,10 @@
       <c r="O116" s="22"/>
       <c r="P116" s="21"/>
       <c r="Q116" s="21"/>
-      <c r="R116" s="22"/>
-    </row>
-    <row r="117" ht="13.5" spans="1:18">
+      <c r="R116" s="21"/>
+      <c r="S116" s="22"/>
+    </row>
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3890,9 +3469,10 @@
       <c r="O117" s="22"/>
       <c r="P117" s="21"/>
       <c r="Q117" s="21"/>
-      <c r="R117" s="22"/>
-    </row>
-    <row r="118" ht="13.5" spans="1:18">
+      <c r="R117" s="21"/>
+      <c r="S117" s="22"/>
+    </row>
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3910,9 +3490,10 @@
       <c r="O118" s="22"/>
       <c r="P118" s="21"/>
       <c r="Q118" s="21"/>
-      <c r="R118" s="22"/>
-    </row>
-    <row r="119" ht="13.5" spans="1:18">
+      <c r="R118" s="21"/>
+      <c r="S118" s="22"/>
+    </row>
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3930,9 +3511,10 @@
       <c r="O119" s="22"/>
       <c r="P119" s="21"/>
       <c r="Q119" s="21"/>
-      <c r="R119" s="22"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="R119" s="21"/>
+      <c r="S119" s="22"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3950,9 +3532,10 @@
       <c r="O120" s="22"/>
       <c r="P120" s="21"/>
       <c r="Q120" s="21"/>
-      <c r="R120" s="22"/>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="R120" s="21"/>
+      <c r="S120" s="22"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3970,9 +3553,10 @@
       <c r="O121" s="22"/>
       <c r="P121" s="21"/>
       <c r="Q121" s="21"/>
-      <c r="R121" s="22"/>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="R121" s="21"/>
+      <c r="S121" s="22"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3990,9 +3574,10 @@
       <c r="O122" s="22"/>
       <c r="P122" s="21"/>
       <c r="Q122" s="21"/>
-      <c r="R122" s="22"/>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="R122" s="21"/>
+      <c r="S122" s="22"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -4010,9 +3595,10 @@
       <c r="O123" s="22"/>
       <c r="P123" s="21"/>
       <c r="Q123" s="21"/>
-      <c r="R123" s="22"/>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="R123" s="21"/>
+      <c r="S123" s="22"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -4030,9 +3616,10 @@
       <c r="O124" s="22"/>
       <c r="P124" s="21"/>
       <c r="Q124" s="21"/>
-      <c r="R124" s="22"/>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="R124" s="21"/>
+      <c r="S124" s="22"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -4050,9 +3637,10 @@
       <c r="O125" s="22"/>
       <c r="P125" s="21"/>
       <c r="Q125" s="21"/>
-      <c r="R125" s="22"/>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="R125" s="21"/>
+      <c r="S125" s="22"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -4070,9 +3658,10 @@
       <c r="O126" s="22"/>
       <c r="P126" s="21"/>
       <c r="Q126" s="21"/>
-      <c r="R126" s="22"/>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="R126" s="21"/>
+      <c r="S126" s="22"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -4090,9 +3679,10 @@
       <c r="O127" s="22"/>
       <c r="P127" s="21"/>
       <c r="Q127" s="21"/>
-      <c r="R127" s="22"/>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="R127" s="21"/>
+      <c r="S127" s="22"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -4110,9 +3700,10 @@
       <c r="O128" s="22"/>
       <c r="P128" s="21"/>
       <c r="Q128" s="21"/>
-      <c r="R128" s="22"/>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="R128" s="21"/>
+      <c r="S128" s="22"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -4130,9 +3721,10 @@
       <c r="O129" s="22"/>
       <c r="P129" s="21"/>
       <c r="Q129" s="21"/>
-      <c r="R129" s="22"/>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="R129" s="21"/>
+      <c r="S129" s="22"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -4150,9 +3742,10 @@
       <c r="O130" s="22"/>
       <c r="P130" s="21"/>
       <c r="Q130" s="21"/>
-      <c r="R130" s="22"/>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="R130" s="21"/>
+      <c r="S130" s="22"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4170,9 +3763,10 @@
       <c r="O131" s="22"/>
       <c r="P131" s="21"/>
       <c r="Q131" s="21"/>
-      <c r="R131" s="22"/>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="R131" s="21"/>
+      <c r="S131" s="22"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4190,9 +3784,10 @@
       <c r="O132" s="22"/>
       <c r="P132" s="21"/>
       <c r="Q132" s="21"/>
-      <c r="R132" s="22"/>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="R132" s="21"/>
+      <c r="S132" s="22"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4210,9 +3805,10 @@
       <c r="O133" s="22"/>
       <c r="P133" s="21"/>
       <c r="Q133" s="21"/>
-      <c r="R133" s="22"/>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="R133" s="21"/>
+      <c r="S133" s="22"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4230,9 +3826,10 @@
       <c r="O134" s="22"/>
       <c r="P134" s="21"/>
       <c r="Q134" s="21"/>
-      <c r="R134" s="22"/>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="R134" s="21"/>
+      <c r="S134" s="22"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4250,9 +3847,10 @@
       <c r="O135" s="22"/>
       <c r="P135" s="21"/>
       <c r="Q135" s="21"/>
-      <c r="R135" s="22"/>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="R135" s="21"/>
+      <c r="S135" s="22"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4270,9 +3868,10 @@
       <c r="O136" s="22"/>
       <c r="P136" s="21"/>
       <c r="Q136" s="21"/>
-      <c r="R136" s="22"/>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="R136" s="21"/>
+      <c r="S136" s="22"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4290,9 +3889,10 @@
       <c r="O137" s="22"/>
       <c r="P137" s="21"/>
       <c r="Q137" s="21"/>
-      <c r="R137" s="22"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="R137" s="21"/>
+      <c r="S137" s="22"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4310,9 +3910,10 @@
       <c r="O138" s="22"/>
       <c r="P138" s="21"/>
       <c r="Q138" s="21"/>
-      <c r="R138" s="22"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="R138" s="21"/>
+      <c r="S138" s="22"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4330,9 +3931,10 @@
       <c r="O139" s="22"/>
       <c r="P139" s="21"/>
       <c r="Q139" s="21"/>
-      <c r="R139" s="22"/>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="R139" s="21"/>
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4350,9 +3952,10 @@
       <c r="O140" s="22"/>
       <c r="P140" s="21"/>
       <c r="Q140" s="21"/>
-      <c r="R140" s="22"/>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="R140" s="21"/>
+      <c r="S140" s="22"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4370,9 +3973,10 @@
       <c r="O141" s="22"/>
       <c r="P141" s="21"/>
       <c r="Q141" s="21"/>
-      <c r="R141" s="22"/>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="R141" s="21"/>
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4390,9 +3994,10 @@
       <c r="O142" s="22"/>
       <c r="P142" s="21"/>
       <c r="Q142" s="21"/>
-      <c r="R142" s="22"/>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="R142" s="21"/>
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4410,9 +4015,10 @@
       <c r="O143" s="22"/>
       <c r="P143" s="21"/>
       <c r="Q143" s="21"/>
-      <c r="R143" s="22"/>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="R143" s="21"/>
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4430,9 +4036,10 @@
       <c r="O144" s="22"/>
       <c r="P144" s="21"/>
       <c r="Q144" s="21"/>
-      <c r="R144" s="22"/>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="R144" s="21"/>
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4450,9 +4057,10 @@
       <c r="O145" s="22"/>
       <c r="P145" s="21"/>
       <c r="Q145" s="21"/>
-      <c r="R145" s="22"/>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="R145" s="21"/>
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4470,9 +4078,10 @@
       <c r="O146" s="22"/>
       <c r="P146" s="21"/>
       <c r="Q146" s="21"/>
-      <c r="R146" s="22"/>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="R146" s="21"/>
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4490,9 +4099,10 @@
       <c r="O147" s="22"/>
       <c r="P147" s="21"/>
       <c r="Q147" s="21"/>
-      <c r="R147" s="22"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="R147" s="21"/>
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4510,9 +4120,10 @@
       <c r="O148" s="22"/>
       <c r="P148" s="21"/>
       <c r="Q148" s="21"/>
-      <c r="R148" s="22"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="R148" s="21"/>
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4530,9 +4141,10 @@
       <c r="O149" s="22"/>
       <c r="P149" s="21"/>
       <c r="Q149" s="21"/>
-      <c r="R149" s="22"/>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="R149" s="21"/>
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4550,9 +4162,10 @@
       <c r="O150" s="22"/>
       <c r="P150" s="21"/>
       <c r="Q150" s="21"/>
-      <c r="R150" s="22"/>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="R150" s="21"/>
+      <c r="S150" s="22"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4570,9 +4183,10 @@
       <c r="O151" s="22"/>
       <c r="P151" s="21"/>
       <c r="Q151" s="21"/>
-      <c r="R151" s="22"/>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="R151" s="21"/>
+      <c r="S151" s="22"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4590,9 +4204,10 @@
       <c r="O152" s="22"/>
       <c r="P152" s="21"/>
       <c r="Q152" s="21"/>
-      <c r="R152" s="22"/>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="R152" s="21"/>
+      <c r="S152" s="22"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4610,9 +4225,10 @@
       <c r="O153" s="22"/>
       <c r="P153" s="21"/>
       <c r="Q153" s="21"/>
-      <c r="R153" s="22"/>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="R153" s="21"/>
+      <c r="S153" s="22"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4630,9 +4246,10 @@
       <c r="O154" s="22"/>
       <c r="P154" s="21"/>
       <c r="Q154" s="21"/>
-      <c r="R154" s="22"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="R154" s="21"/>
+      <c r="S154" s="22"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4650,9 +4267,10 @@
       <c r="O155" s="22"/>
       <c r="P155" s="21"/>
       <c r="Q155" s="21"/>
-      <c r="R155" s="22"/>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="R155" s="21"/>
+      <c r="S155" s="22"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4670,9 +4288,10 @@
       <c r="O156" s="22"/>
       <c r="P156" s="21"/>
       <c r="Q156" s="21"/>
-      <c r="R156" s="22"/>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="R156" s="21"/>
+      <c r="S156" s="22"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4690,9 +4309,10 @@
       <c r="O157" s="22"/>
       <c r="P157" s="21"/>
       <c r="Q157" s="21"/>
-      <c r="R157" s="22"/>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="R157" s="21"/>
+      <c r="S157" s="22"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4710,9 +4330,10 @@
       <c r="O158" s="22"/>
       <c r="P158" s="21"/>
       <c r="Q158" s="21"/>
-      <c r="R158" s="22"/>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="R158" s="21"/>
+      <c r="S158" s="22"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4730,9 +4351,10 @@
       <c r="O159" s="22"/>
       <c r="P159" s="21"/>
       <c r="Q159" s="21"/>
-      <c r="R159" s="22"/>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="R159" s="21"/>
+      <c r="S159" s="22"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4750,9 +4372,10 @@
       <c r="O160" s="22"/>
       <c r="P160" s="21"/>
       <c r="Q160" s="21"/>
-      <c r="R160" s="22"/>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="R160" s="21"/>
+      <c r="S160" s="22"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4770,9 +4393,10 @@
       <c r="O161" s="22"/>
       <c r="P161" s="21"/>
       <c r="Q161" s="21"/>
-      <c r="R161" s="22"/>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="R161" s="21"/>
+      <c r="S161" s="22"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4790,9 +4414,10 @@
       <c r="O162" s="22"/>
       <c r="P162" s="21"/>
       <c r="Q162" s="21"/>
-      <c r="R162" s="22"/>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="R162" s="21"/>
+      <c r="S162" s="22"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4810,9 +4435,10 @@
       <c r="O163" s="22"/>
       <c r="P163" s="21"/>
       <c r="Q163" s="21"/>
-      <c r="R163" s="22"/>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="R163" s="21"/>
+      <c r="S163" s="22"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4830,9 +4456,10 @@
       <c r="O164" s="22"/>
       <c r="P164" s="21"/>
       <c r="Q164" s="21"/>
-      <c r="R164" s="22"/>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="R164" s="21"/>
+      <c r="S164" s="22"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4850,9 +4477,10 @@
       <c r="O165" s="22"/>
       <c r="P165" s="21"/>
       <c r="Q165" s="21"/>
-      <c r="R165" s="22"/>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="R165" s="21"/>
+      <c r="S165" s="22"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4870,9 +4498,10 @@
       <c r="O166" s="22"/>
       <c r="P166" s="21"/>
       <c r="Q166" s="21"/>
-      <c r="R166" s="22"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="R166" s="21"/>
+      <c r="S166" s="22"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4890,9 +4519,10 @@
       <c r="O167" s="22"/>
       <c r="P167" s="21"/>
       <c r="Q167" s="21"/>
-      <c r="R167" s="22"/>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="R167" s="21"/>
+      <c r="S167" s="22"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4910,9 +4540,10 @@
       <c r="O168" s="22"/>
       <c r="P168" s="21"/>
       <c r="Q168" s="21"/>
-      <c r="R168" s="22"/>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="R168" s="21"/>
+      <c r="S168" s="22"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4930,9 +4561,10 @@
       <c r="O169" s="22"/>
       <c r="P169" s="21"/>
       <c r="Q169" s="21"/>
-      <c r="R169" s="22"/>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="R169" s="21"/>
+      <c r="S169" s="22"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4950,9 +4582,10 @@
       <c r="O170" s="22"/>
       <c r="P170" s="21"/>
       <c r="Q170" s="21"/>
-      <c r="R170" s="22"/>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="R170" s="21"/>
+      <c r="S170" s="22"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4970,9 +4603,10 @@
       <c r="O171" s="22"/>
       <c r="P171" s="21"/>
       <c r="Q171" s="21"/>
-      <c r="R171" s="22"/>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="R171" s="21"/>
+      <c r="S171" s="22"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4990,9 +4624,10 @@
       <c r="O172" s="22"/>
       <c r="P172" s="21"/>
       <c r="Q172" s="21"/>
-      <c r="R172" s="22"/>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="R172" s="21"/>
+      <c r="S172" s="22"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -5010,9 +4645,10 @@
       <c r="O173" s="22"/>
       <c r="P173" s="21"/>
       <c r="Q173" s="21"/>
-      <c r="R173" s="22"/>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="R173" s="21"/>
+      <c r="S173" s="22"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -5030,9 +4666,10 @@
       <c r="O174" s="22"/>
       <c r="P174" s="21"/>
       <c r="Q174" s="21"/>
-      <c r="R174" s="22"/>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="R174" s="21"/>
+      <c r="S174" s="22"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -5050,9 +4687,10 @@
       <c r="O175" s="22"/>
       <c r="P175" s="21"/>
       <c r="Q175" s="21"/>
-      <c r="R175" s="22"/>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="R175" s="21"/>
+      <c r="S175" s="22"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -5070,9 +4708,10 @@
       <c r="O176" s="22"/>
       <c r="P176" s="21"/>
       <c r="Q176" s="21"/>
-      <c r="R176" s="22"/>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="R176" s="21"/>
+      <c r="S176" s="22"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -5090,9 +4729,10 @@
       <c r="O177" s="22"/>
       <c r="P177" s="21"/>
       <c r="Q177" s="21"/>
-      <c r="R177" s="22"/>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="R177" s="21"/>
+      <c r="S177" s="22"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -5110,9 +4750,10 @@
       <c r="O178" s="22"/>
       <c r="P178" s="21"/>
       <c r="Q178" s="21"/>
-      <c r="R178" s="22"/>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="R178" s="21"/>
+      <c r="S178" s="22"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -5130,9 +4771,10 @@
       <c r="O179" s="22"/>
       <c r="P179" s="21"/>
       <c r="Q179" s="21"/>
-      <c r="R179" s="22"/>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="R179" s="21"/>
+      <c r="S179" s="22"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -5148,9 +4790,9 @@
       <c r="M180" s="21"/>
       <c r="N180" s="25"/>
       <c r="O180" s="22"/>
-      <c r="R180" s="22"/>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180" s="22"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -5166,9 +4808,9 @@
       <c r="M181" s="21"/>
       <c r="N181" s="25"/>
       <c r="O181" s="22"/>
-      <c r="R181" s="22"/>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181" s="22"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -5184,9 +4826,9 @@
       <c r="M182" s="21"/>
       <c r="N182" s="25"/>
       <c r="O182" s="22"/>
-      <c r="R182" s="22"/>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182" s="22"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -5202,9 +4844,9 @@
       <c r="M183" s="21"/>
       <c r="N183" s="25"/>
       <c r="O183" s="22"/>
-      <c r="R183" s="22"/>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183" s="22"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -5220,9 +4862,9 @@
       <c r="M184" s="21"/>
       <c r="N184" s="25"/>
       <c r="O184" s="22"/>
-      <c r="R184" s="22"/>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" s="22"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -5238,9 +4880,9 @@
       <c r="M185" s="21"/>
       <c r="N185" s="25"/>
       <c r="O185" s="22"/>
-      <c r="R185" s="22"/>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" s="22"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -5256,9 +4898,9 @@
       <c r="M186" s="21"/>
       <c r="N186" s="25"/>
       <c r="O186" s="22"/>
-      <c r="R186" s="22"/>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" s="22"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -5274,9 +4916,9 @@
       <c r="M187" s="21"/>
       <c r="N187" s="25"/>
       <c r="O187" s="22"/>
-      <c r="R187" s="22"/>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" s="22"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -5292,9 +4934,9 @@
       <c r="M188" s="21"/>
       <c r="N188" s="25"/>
       <c r="O188" s="22"/>
-      <c r="R188" s="22"/>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" s="22"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
@@ -5310,9 +4952,9 @@
       <c r="M189" s="21"/>
       <c r="N189" s="25"/>
       <c r="O189" s="22"/>
-      <c r="R189" s="22"/>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" s="22"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
@@ -5328,9 +4970,9 @@
       <c r="M190" s="21"/>
       <c r="N190" s="25"/>
       <c r="O190" s="22"/>
-      <c r="R190" s="22"/>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" s="22"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="21"/>
@@ -5346,9 +4988,9 @@
       <c r="M191" s="21"/>
       <c r="N191" s="25"/>
       <c r="O191" s="22"/>
-      <c r="R191" s="22"/>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" s="22"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="21"/>
@@ -5364,9 +5006,9 @@
       <c r="M192" s="21"/>
       <c r="N192" s="25"/>
       <c r="O192" s="22"/>
-      <c r="R192" s="22"/>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" s="22"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="21"/>
@@ -5382,9 +5024,9 @@
       <c r="M193" s="21"/>
       <c r="N193" s="25"/>
       <c r="O193" s="22"/>
-      <c r="R193" s="22"/>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" s="22"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="21"/>
@@ -5400,9 +5042,9 @@
       <c r="M194" s="21"/>
       <c r="N194" s="25"/>
       <c r="O194" s="22"/>
-      <c r="R194" s="22"/>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" s="22"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="21"/>
@@ -5418,9 +5060,9 @@
       <c r="M195" s="21"/>
       <c r="N195" s="25"/>
       <c r="O195" s="22"/>
-      <c r="R195" s="22"/>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" s="22"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="21"/>
@@ -5436,9 +5078,9 @@
       <c r="M196" s="21"/>
       <c r="N196" s="25"/>
       <c r="O196" s="22"/>
-      <c r="R196" s="22"/>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" s="22"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="21"/>
@@ -5454,9 +5096,9 @@
       <c r="M197" s="21"/>
       <c r="N197" s="25"/>
       <c r="O197" s="22"/>
-      <c r="R197" s="22"/>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" s="22"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="21"/>
@@ -5472,9 +5114,9 @@
       <c r="M198" s="21"/>
       <c r="N198" s="25"/>
       <c r="O198" s="22"/>
-      <c r="R198" s="22"/>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" s="22"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="21"/>
@@ -5490,9 +5132,9 @@
       <c r="M199" s="21"/>
       <c r="N199" s="25"/>
       <c r="O199" s="22"/>
-      <c r="R199" s="22"/>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" s="22"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="21"/>
@@ -5508,9 +5150,9 @@
       <c r="M200" s="21"/>
       <c r="N200" s="25"/>
       <c r="O200" s="22"/>
-      <c r="R200" s="22"/>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200" s="22"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="21"/>
@@ -5526,9 +5168,9 @@
       <c r="M201" s="21"/>
       <c r="N201" s="25"/>
       <c r="O201" s="22"/>
-      <c r="R201" s="22"/>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201" s="22"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="21"/>
@@ -5544,9 +5186,9 @@
       <c r="M202" s="21"/>
       <c r="N202" s="25"/>
       <c r="O202" s="22"/>
-      <c r="R202" s="22"/>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202" s="22"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="21"/>
@@ -5562,9 +5204,9 @@
       <c r="M203" s="21"/>
       <c r="N203" s="25"/>
       <c r="O203" s="22"/>
-      <c r="R203" s="22"/>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="S203" s="22"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="21"/>
@@ -5580,9 +5222,9 @@
       <c r="M204" s="21"/>
       <c r="N204" s="25"/>
       <c r="O204" s="22"/>
-      <c r="R204" s="22"/>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204" s="22"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="21"/>
@@ -5598,9 +5240,9 @@
       <c r="M205" s="21"/>
       <c r="N205" s="25"/>
       <c r="O205" s="22"/>
-      <c r="R205" s="22"/>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205" s="22"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="21"/>
@@ -5616,9 +5258,9 @@
       <c r="M206" s="21"/>
       <c r="N206" s="25"/>
       <c r="O206" s="22"/>
-      <c r="R206" s="22"/>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206" s="22"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="21"/>
@@ -5634,9 +5276,9 @@
       <c r="M207" s="21"/>
       <c r="N207" s="25"/>
       <c r="O207" s="22"/>
-      <c r="R207" s="22"/>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207" s="22"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="21"/>
@@ -5652,9 +5294,9 @@
       <c r="M208" s="21"/>
       <c r="N208" s="25"/>
       <c r="O208" s="22"/>
-      <c r="R208" s="22"/>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208" s="22"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="21"/>
@@ -5670,9 +5312,9 @@
       <c r="M209" s="21"/>
       <c r="N209" s="25"/>
       <c r="O209" s="22"/>
-      <c r="R209" s="22"/>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209" s="22"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="21"/>
@@ -5688,9 +5330,9 @@
       <c r="M210" s="21"/>
       <c r="N210" s="25"/>
       <c r="O210" s="22"/>
-      <c r="R210" s="22"/>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210" s="22"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="21"/>
@@ -5706,9 +5348,9 @@
       <c r="M211" s="21"/>
       <c r="N211" s="25"/>
       <c r="O211" s="22"/>
-      <c r="R211" s="22"/>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211" s="22"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="21"/>
       <c r="B212" s="22"/>
       <c r="C212" s="21"/>
@@ -5724,9 +5366,9 @@
       <c r="M212" s="21"/>
       <c r="N212" s="25"/>
       <c r="O212" s="22"/>
-      <c r="R212" s="22"/>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212" s="22"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="21"/>
       <c r="B213" s="22"/>
       <c r="C213" s="21"/>
@@ -5742,9 +5384,9 @@
       <c r="M213" s="21"/>
       <c r="N213" s="25"/>
       <c r="O213" s="22"/>
-      <c r="R213" s="22"/>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213" s="22"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="21"/>
@@ -5760,25 +5402,24 @@
       <c r="M214" s="21"/>
       <c r="N214" s="25"/>
       <c r="O214" s="22"/>
-      <c r="R214" s="22"/>
+      <c r="S214" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5789,33 +5430,33 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5825,7 +5466,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5835,7 +5476,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5845,7 +5486,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5855,7 +5496,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5865,7 +5506,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5875,7 +5516,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5885,7 +5526,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5895,7 +5536,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5905,7 +5546,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5915,7 +5556,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5925,7 +5566,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5935,7 +5576,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5945,7 +5586,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5955,7 +5596,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5965,7 +5606,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5975,7 +5616,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5985,7 +5626,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5996,12 +5637,12 @@
       <c r="H19" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>